--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.2313660485293412</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9231194494843248</v>
+        <v>0.9231194494843276</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.961567398356751</v>
@@ -624,7 +624,7 @@
         <v>0.8874915471715539</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.224468870596771</v>
+        <v>-2.224468870596774</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.468535363761206</v>
+        <v>-6.366595516514958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.1948745913765</v>
+        <v>-4.546867180373783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.069908809502855</v>
+        <v>-6.076594712679697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.53816834039153</v>
+        <v>-12.62291905803132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.382637120940467</v>
+        <v>-4.459708171392695</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.753490406643829</v>
+        <v>-6.48138442215265</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.167082090189998</v>
+        <v>6.035226375817648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.870875455175717</v>
+        <v>6.245484689009333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.933405939611943</v>
+        <v>9.213402422669837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6770634885520482</v>
+        <v>1.355935809464732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.015876756024356</v>
+        <v>5.986673680645966</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.239742066521677</v>
+        <v>2.46768069227589</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.01576096091267136</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.06288411654834505</v>
+        <v>0.06288411654834525</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.06558677290085145</v>
@@ -702,7 +702,7 @@
         <v>0.03998466122708522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1002202606711877</v>
+        <v>-0.1002202606711878</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3699933477868416</v>
+        <v>-0.3516149324856344</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.286671607187019</v>
+        <v>-0.2567287150675138</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1788511720744786</v>
+        <v>-0.1816765049872487</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3602254937017234</v>
+        <v>-0.3593017687784228</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1801407890544464</v>
+        <v>-0.1819656484260446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2697599988127073</v>
+        <v>-0.2600791108265469</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4399228353134303</v>
+        <v>0.5233715674078918</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5066041534100162</v>
+        <v>0.5431834952348475</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3873481262922635</v>
+        <v>0.3521867451786265</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03677286903808517</v>
+        <v>0.05365015968349201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3079697452652363</v>
+        <v>0.3066335652750595</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1154571453695871</v>
+        <v>0.1300921388311036</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>-3.232130959022117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6235640010447852</v>
+        <v>0.6235640010447796</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-4.036354758794161</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.03569821257962</v>
+        <v>-9.884102261821253</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.274063483889497</v>
+        <v>-9.19883718308942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.369764157400629</v>
+        <v>-8.944475096865995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.463736510588635</v>
+        <v>-4.714169393701154</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.934569085275399</v>
+        <v>-7.861654296977092</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.256864812603387</v>
+        <v>-5.613996591928386</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1898541786056636</v>
+        <v>-0.1401438592215025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7782036362477932</v>
+        <v>1.004608266807422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.574858393467763</v>
+        <v>2.715882716656472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.321060237346388</v>
+        <v>5.94335851378671</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.2579906180183072</v>
+        <v>-0.04303638161060581</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.477791714416735</v>
+        <v>1.961385956956653</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-0.1074826468338353</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.0207362604276615</v>
+        <v>0.02073626042766132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.166381671368193</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4783322633959667</v>
+        <v>-0.4648879008898048</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4350259558645589</v>
+        <v>-0.4279672570562876</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2787791382438929</v>
+        <v>-0.272084596567655</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1646902843293981</v>
+        <v>-0.1465599153128092</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2982385021426104</v>
+        <v>-0.2949359147119511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1981252838558287</v>
+        <v>-0.2063114660629095</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01219056083801041</v>
+        <v>-0.008521747635334434</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05460226237255722</v>
+        <v>0.07908947738590659</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0935445863435122</v>
+        <v>0.1048794366005931</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1975421406046676</v>
+        <v>0.224145058269591</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.007345781741454312</v>
+        <v>0.0001984428465063425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1105636010371607</v>
+        <v>0.0876259755609807</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-6.184999595874404</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.571456027669033</v>
+        <v>4.571456027669027</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.55768186545896</v>
+        <v>-14.67399062251573</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.097983068418185</v>
+        <v>-3.626980042168374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.38721140827284</v>
+        <v>-9.841205444585134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4930668851976878</v>
+        <v>-0.6312040897645108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.65768835233056</v>
+        <v>-10.7670025107782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.07848168955600406</v>
+        <v>0.101293416778929</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.191601882165092</v>
+        <v>-3.352086536305285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.501400444758952</v>
+        <v>8.573498659667903</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.165140646717071</v>
+        <v>3.605250709183315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.70335098859668</v>
+        <v>12.25537224806303</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.137812016405786</v>
+        <v>-2.12873801739177</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.227654387096178</v>
+        <v>9.176089662172124</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>-0.2602775354803284</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1923762952599147</v>
+        <v>0.1923762952599145</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6210794418211226</v>
+        <v>-0.6151303512658444</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1692554745450984</v>
+        <v>-0.1566332753426913</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3419422002706171</v>
+        <v>-0.3327952304662156</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01882794218242011</v>
+        <v>-0.02820363761047127</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4015213678219742</v>
+        <v>-0.4005693740395225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0006505545710872511</v>
+        <v>0.003005952130561529</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1630231931567513</v>
+        <v>-0.1906477533172662</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4723539895407047</v>
+        <v>0.493285654997959</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.141894926092017</v>
+        <v>0.1541889534269429</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5726913245875803</v>
+        <v>0.5329086146648242</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.04624060816739856</v>
+        <v>-0.09864568765608873</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4466797655338908</v>
+        <v>0.4407242752832473</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>1.747208161258756</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>8.961484395320035</v>
+        <v>8.961484395320038</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.5428681264950941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.100744111635727</v>
+        <v>2.100744111635722</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6034837702502627</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.673923954058835</v>
+        <v>5.67392395405883</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.991882724170414</v>
+        <v>-3.792794240009145</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.625638693882542</v>
+        <v>2.990097083200745</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.463945685894052</v>
+        <v>-6.892630433754652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.041194820564941</v>
+        <v>-4.312345808136056</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.256550109394445</v>
+        <v>-3.57110816462988</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8606803038174157</v>
+        <v>1.155592587210117</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.296039516173108</v>
+        <v>7.350241021308392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.72057031395657</v>
+        <v>16.23115141848382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.544921442041178</v>
+        <v>6.447951888782224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.013644391848395</v>
+        <v>8.773488007290526</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.179565599831388</v>
+        <v>4.883682217021321</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.25412998179112</v>
+        <v>10.53922691104178</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>0.117574977692923</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6030456766617569</v>
+        <v>0.6030456766617571</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.01708190825904251</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.06610209080125383</v>
+        <v>0.06610209080125365</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02569511634455524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.241584187208947</v>
+        <v>0.2415841872089468</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2321591390848563</v>
+        <v>-0.2185148328834659</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1414295286393542</v>
+        <v>0.1833154830552221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2077213941073542</v>
+        <v>-0.2022769730714099</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1122198452361279</v>
+        <v>-0.1195095402747483</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1621618517956174</v>
+        <v>-0.1393600408206652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03466762631214684</v>
+        <v>0.04822230252962319</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5847564242755284</v>
+        <v>0.5970561627093592</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.248035681053951</v>
+        <v>1.320751053410662</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2226429866332147</v>
+        <v>0.226369652406225</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2825638826684601</v>
+        <v>0.3241213466336326</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2453541557221552</v>
+        <v>0.2287473770851636</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.496594504487026</v>
+        <v>0.5026685746926487</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.87686043579638</v>
+        <v>-14.52569196626314</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.5518957129402</v>
+        <v>-16.61981326402537</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-26.5501666853962</v>
+        <v>-27.09929442270683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-27.67838600185121</v>
+        <v>-28.42744999747816</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-18.41906119654159</v>
+        <v>-18.77461176456813</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.98585122829544</v>
+        <v>-20.55730314695807</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.690856335423214</v>
+        <v>1.203155037831266</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.943255592641832</v>
+        <v>-1.676439081272582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-9.031535552685947</v>
+        <v>-8.954501845784</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.17816804168566</v>
+        <v>-12.79242511439887</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.702637614271461</v>
+        <v>-6.090735348841641</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.383860160077981</v>
+        <v>-9.652435580215545</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.3546667908973827</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4208899842621944</v>
+        <v>-0.4208899842621943</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5427269836102711</v>
+        <v>-0.5505722950749548</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6075064719330473</v>
+        <v>-0.6195337644065991</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5142020790166808</v>
+        <v>-0.5264963460714248</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5326402472463959</v>
+        <v>-0.5362151956410001</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.497696703939545</v>
+        <v>-0.4942070106149447</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.520002829942652</v>
+        <v>-0.5343489526389303</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04668195075159846</v>
+        <v>0.07261739676338426</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.09219080007241034</v>
+        <v>-0.07436958125208706</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2031107289523038</v>
+        <v>-0.2105924439977899</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2943963186662075</v>
+        <v>-0.3066742601538724</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2110921428986654</v>
+        <v>-0.1923770972644394</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2991311621697056</v>
+        <v>-0.3094545936517509</v>
       </c>
     </row>
     <row r="34">
@@ -1412,13 +1412,13 @@
         <v>-4.921975217294716</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.509079641401703</v>
+        <v>1.509079641401709</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-6.705715429759385</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3.439302144963474</v>
+        <v>3.439302144963458</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-5.790653100195842</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.45265174701948</v>
+        <v>-11.48840705210963</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.580316401036052</v>
+        <v>-5.398610786833098</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-14.87513008786508</v>
+        <v>-14.46725139657703</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.456941159835036</v>
+        <v>-3.671397522977424</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.39019839141191</v>
+        <v>-11.00794648224413</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.033635092023926</v>
+        <v>-2.896727713202922</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.39554401626153</v>
+        <v>2.503329989032765</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.223761644913133</v>
+        <v>8.064462772589838</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9531188914019557</v>
+        <v>0.9472538785104641</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.08661152008487</v>
+        <v>10.73337723152465</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.5709598597395911</v>
+        <v>-0.6385390470135476</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.073710826825836</v>
+        <v>6.793751792553094</v>
       </c>
     </row>
     <row r="37">
@@ -1490,13 +1490,13 @@
         <v>-0.2105534238753443</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.06455576701833682</v>
+        <v>0.06455576701833705</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.1989874620309415</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.1020589096200899</v>
+        <v>0.1020589096200894</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.2025118588811918</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4612488867928201</v>
+        <v>-0.4195457782905443</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2096770054016046</v>
+        <v>-0.2051408851181349</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4032589623937426</v>
+        <v>-0.3856506290299082</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.08942315991146788</v>
+        <v>-0.09669994869641427</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3623051804574111</v>
+        <v>-0.3529544105453803</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.09539806669128152</v>
+        <v>-0.08977553940612681</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.07422768254145183</v>
+        <v>0.1246608377799477</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3703238030709261</v>
+        <v>0.4284188519693339</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.03026838854233568</v>
+        <v>0.03302883625675911</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3413809903840548</v>
+        <v>0.3664752457724261</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.02104821670549047</v>
+        <v>-0.02425172064797713</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2733390830429397</v>
+        <v>0.2588385990556681</v>
       </c>
     </row>
     <row r="40">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.47433438349059</v>
+        <v>-5.651320074951585</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.611931054648722</v>
+        <v>2.109055610702336</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.99753723654659</v>
+        <v>-10.76823941023021</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11.42560556986951</v>
+        <v>11.52513328116941</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.071587753077218</v>
+        <v>-7.281882294082169</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.321377535874014</v>
+        <v>8.038578195096582</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.356638376859276</v>
+        <v>2.451310805794835</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.80544884875355</v>
+        <v>10.68471160074528</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.430128667678826</v>
+        <v>-1.354622011303489</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20.99208195823232</v>
+        <v>20.85564684142065</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.617921741388075</v>
+        <v>-0.801825802709096</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.99392300063254</v>
+        <v>14.84646933506736</v>
       </c>
     </row>
     <row r="43">
@@ -1656,7 +1656,7 @@
         <v>-0.2219351509642958</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.5875319962876903</v>
+        <v>0.58753199628769</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.1794064577775699</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3049910401221572</v>
+        <v>-0.3181542578431418</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1443696269162238</v>
+        <v>0.1073322883370201</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3659483613317254</v>
+        <v>-0.3629447199911702</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3784814095972975</v>
+        <v>0.3823195633897487</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.301704942482575</v>
+        <v>-0.3046724024827052</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3527829576280122</v>
+        <v>0.3425542991123395</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1739766830308598</v>
+        <v>0.1826694736525796</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8794004323936112</v>
+        <v>0.7620799741514483</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.05995495061950092</v>
+        <v>-0.05336525152384517</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8673483275175545</v>
+        <v>0.8485142283436893</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.02806778941901352</v>
+        <v>-0.03418902760657518</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7397701172409591</v>
+        <v>0.7466869501780621</v>
       </c>
     </row>
     <row r="46">
@@ -1732,13 +1732,13 @@
         <v>1.952838638561058</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-1.754566251255336</v>
+        <v>-1.754566251255335</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.498426583630418</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1.742944304916669</v>
+        <v>1.742944304916674</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>1.212232963979065</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.862991415998268</v>
+        <v>-1.684501040853888</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.942550494596631</v>
+        <v>-5.148471628175515</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.014563458776918</v>
+        <v>-3.94500570018109</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.486130451207276</v>
+        <v>-2.239039502252497</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.512503380453419</v>
+        <v>-1.591250958110334</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.778252512822796</v>
+        <v>-2.521529787574154</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.504297627019398</v>
+        <v>5.969443919391472</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.604790695949454</v>
+        <v>1.624905074491067</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.762926609505794</v>
+        <v>4.459179858338313</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.837640501284356</v>
+        <v>5.713726405318249</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.915496237082074</v>
+        <v>4.09963603720735</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.733981227310778</v>
+        <v>2.574131776141479</v>
       </c>
     </row>
     <row r="49">
@@ -1810,13 +1810,13 @@
         <v>0.1395976518291046</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.1254242536056732</v>
+        <v>-0.1254242536056731</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.02128487771244237</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.07443093448092945</v>
+        <v>0.07443093448092969</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06436200012282961</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1184602109871357</v>
+        <v>-0.1080724916364009</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3079529452575568</v>
+        <v>-0.3223357092171975</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1601750380298756</v>
+        <v>-0.1558473734950856</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.09149381127037158</v>
+        <v>-0.09001904365258313</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.07535619524240329</v>
+        <v>-0.07650150331076323</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.137063653419905</v>
+        <v>-0.121912288274241</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4296203536138709</v>
+        <v>0.4867767541150478</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1514246986369872</v>
+        <v>0.1515136093235281</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2222108498388271</v>
+        <v>0.2115947644921828</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.278162604941628</v>
+        <v>0.2623010615050292</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2238996681715491</v>
+        <v>0.237474323307669</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1624373141964703</v>
+        <v>0.1448940173916082</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1898,7 @@
         <v>-3.417330452941669</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>3.175362872489496</v>
+        <v>3.175362872489501</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-2.745461391103335</v>
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.037205436121325</v>
+        <v>-3.851047729552354</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.6830567459041289</v>
+        <v>-0.7247661528468317</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.739501776746402</v>
+        <v>-5.542059056125497</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.187866246635594</v>
+        <v>1.187307934350173</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.160528021868409</v>
+        <v>-4.306655618401003</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.7819849013892762</v>
+        <v>0.8063362678368473</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.4078599662975332</v>
+        <v>-0.2914742393240881</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.992382545703093</v>
+        <v>2.984778484677229</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.188533152133661</v>
+        <v>-0.9542231067134992</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.279532076945959</v>
+        <v>5.361963300473739</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-1.216781442081004</v>
+        <v>-1.312444850174029</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.760421080639334</v>
+        <v>3.570067405425533</v>
       </c>
     </row>
     <row r="55">
@@ -1976,7 +1976,7 @@
         <v>-0.1170788145126591</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>0.1087889292177059</v>
+        <v>0.1087889292177061</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.1182895525800886</v>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2232240617683733</v>
+        <v>-0.2130679541070137</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0385888491269963</v>
+        <v>-0.04193669399044404</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.187057428099684</v>
+        <v>-0.1880133001712622</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.03949171103000221</v>
+        <v>0.03742080098474909</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1730968314273885</v>
+        <v>-0.1800180198919326</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03285941080299568</v>
+        <v>0.03217930005529236</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.02505562592932453</v>
+        <v>-0.0175318469009665</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1871930385371955</v>
+        <v>0.1874793821184383</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.03986398062342848</v>
+        <v>-0.03532188119944671</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1887300825145894</v>
+        <v>0.1871030911894048</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.05477559534506843</v>
+        <v>-0.05866262200705814</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1685239162817869</v>
+        <v>0.1593873247831164</v>
       </c>
     </row>
     <row r="58">
